--- a/data/trans_camb/P5B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 1,44</t>
+          <t>-9,3; 1,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 2,6</t>
+          <t>-9,02; 2,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 4,5</t>
+          <t>-7,85; 4,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 0,0</t>
+          <t>-11,24; 0,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 3,96</t>
+          <t>-10,0; 3,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 1,07</t>
+          <t>-11,1; 1,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,85; -0,34</t>
+          <t>-8,09; -0,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 1,67</t>
+          <t>-7,33; 1,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 1,49</t>
+          <t>-7,69; 1,17</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 285,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 520,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,27 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 268,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-96,45; 21,4</t>
+          <t>-100,0; 18,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-88,5; 104,71</t>
+          <t>-89,56; 62,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-89,84; 68,5</t>
+          <t>-89,73; 64,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 0,42</t>
+          <t>-3,3; 0,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; -0,88</t>
+          <t>-4,03; -0,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; -1,24</t>
+          <t>-4,24; -1,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; -0,27</t>
+          <t>-4,59; -0,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,59</t>
+          <t>-4,07; 0,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 5,46</t>
+          <t>-4,08; 5,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; -0,57</t>
+          <t>-3,35; -0,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; -0,82</t>
+          <t>-3,33; -0,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 1,19</t>
+          <t>-3,56; 1,15</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,24; 30,48</t>
+          <t>-77,27; 36,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-94,82; -27,13</t>
+          <t>-92,6; -26,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-95,23; -51,2</t>
+          <t>-95,94; -50,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-84,38; -1,63</t>
+          <t>-84,78; -0,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,59; 23,98</t>
+          <t>-73,3; 14,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-89,22; 197,37</t>
+          <t>-90,63; 174,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-76,03; -17,17</t>
+          <t>-75,86; -18,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,41; -27,7</t>
+          <t>-76,11; -23,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-88,86; 62,97</t>
+          <t>-87,86; 50,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,57</t>
+          <t>-3,63; 1,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,45</t>
+          <t>-3,06; 2,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,97</t>
+          <t>-2,02; 3,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,76</t>
+          <t>-2,48; 4,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,61; -0,96</t>
+          <t>-5,73; -0,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,07; -0,3</t>
+          <t>-5,33; -0,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,01</t>
+          <t>-2,11; 2,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,26</t>
+          <t>-3,47; 0,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,41</t>
+          <t>-2,68; 1,21</t>
         </is>
       </c>
     </row>
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-72,22; 629,4</t>
+          <t>-77,22; 555,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,83; 411,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-64,8; 170,11</t>
+          <t>-66,54; 226,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 62,06</t>
+          <t>-93,31; 48,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-79,08; 126,59</t>
+          <t>-77,36; 131,19</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,97; -0,02</t>
+          <t>-2,98; 0,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; -0,63</t>
+          <t>-3,27; -0,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,26; -0,28</t>
+          <t>-3,17; -0,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,56; -0,03</t>
+          <t>-3,45; -0,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,35</t>
+          <t>-3,64; -0,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,5</t>
+          <t>-3,88; 2,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,5</t>
+          <t>-2,74; -0,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -1,0</t>
+          <t>-3,18; -0,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,57</t>
+          <t>-2,98; 0,85</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-75,95; 6,59</t>
+          <t>-76,25; 7,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,45; -26,37</t>
+          <t>-83,6; -11,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-78,84; -4,89</t>
+          <t>-79,77; -13,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-73,4; 1,71</t>
+          <t>-74,14; 0,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,24; -11,41</t>
+          <t>-75,62; -11,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-87,83; 135,36</t>
+          <t>-88,27; 105,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-67,76; -15,93</t>
+          <t>-66,77; -14,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-74,11; -33,47</t>
+          <t>-74,87; -31,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-75,89; 38,67</t>
+          <t>-76,16; 43,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,93</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,36; 0,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,77; 3,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,42; 0,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,08; 1,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,89; 2,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 4,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,35; -0,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,45; 1,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,6; 0,97</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,0%</t>
         </is>
       </c>
     </row>
@@ -811,34 +811,34 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 385,18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 18,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,74; 66,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,67; 53,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 1,73</t>
+          <t>-4,74; -0,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 2,75</t>
+          <t>-3,79; 0,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 4,36</t>
+          <t>-3,93; 20,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 0,37</t>
+          <t>-3,36; 0,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 3,5</t>
+          <t>-4,09; -0,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 1,56</t>
+          <t>-4,34; -1,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -0,48</t>
+          <t>-3,38; -0,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 1,07</t>
+          <t>-3,37; -0,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 1,17</t>
+          <t>-3,3; 8,96</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-59,73%</t>
+          <t>-60,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-50,61%</t>
+          <t>-41,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-28,82%</t>
+          <t>62,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-78,95%</t>
+          <t>-46,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-49,23%</t>
+          <t>-76,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-72,33%</t>
+          <t>-83,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-69,84%</t>
+          <t>-54,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-50,6%</t>
+          <t>-57,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-51,31%</t>
+          <t>-4,75%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 285,7</t>
+          <t>-85,1; -3,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-70,77; 21,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,75; 777,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,34; 20,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 268,43</t>
+          <t>-94,38; -26,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-96,53; -46,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 18,93</t>
+          <t>-76,53; -15,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,56; 62,04</t>
+          <t>-78,24; -26,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-89,73; 64,54</t>
+          <t>-88,15; 286,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-0,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 0,52</t>
+          <t>-2,22; 5,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; -0,88</t>
+          <t>-5,61; -0,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,24; -1,1</t>
+          <t>-5,03; -0,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; -0,27</t>
+          <t>-3,61; 1,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,3</t>
+          <t>-3,42; 2,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 5,06</t>
+          <t>-2,17; 3,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,58</t>
+          <t>-2,41; 1,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; -0,65</t>
+          <t>-3,35; 0,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 1,15</t>
+          <t>-2,66; 1,23</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-46,37%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-76,58%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-82,74%</t>
+          <t>-84,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-60,68%</t>
+          <t>-45,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-41,57%</t>
+          <t>-19,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-35,75%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-54,02%</t>
+          <t>-3,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-57,37%</t>
+          <t>-64,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-57,06%</t>
+          <t>-29,09%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-77,27; 36,33</t>
+          <t>-68,3; 470,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-92,6; -26,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-95,94; -50,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-84,78; -0,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-73,3; 14,39</t>
+          <t>-100,0; 465,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-90,63; 174,03</t>
+          <t>-73,69; 580,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-75,86; -18,08</t>
+          <t>-70,23; 163,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,11; -23,31</t>
+          <t>-100,0; 56,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-87,86; 50,88</t>
+          <t>-78,53; 106,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,33</t>
+          <t>-3,68; -0,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 2,5</t>
+          <t>-3,69; -0,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,67</t>
+          <t>-3,66; 14,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 4,56</t>
+          <t>-2,82; -0,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -0,98</t>
+          <t>-3,36; -0,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,33; -0,26</t>
+          <t>-3,15; -0,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,34</t>
+          <t>-2,77; -0,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,15</t>
+          <t>-3,07; -0,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,21</t>
+          <t>-2,71; 5,71</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-45,61%</t>
+          <t>-47,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-19,22%</t>
+          <t>-53,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>35,13%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>-48,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-63,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-84,18%</t>
+          <t>-57,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>-48,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-64,16%</t>
+          <t>-58,14%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-28,49%</t>
+          <t>-15,69%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,01; -0,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,0; -14,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,22; 555,38</t>
+          <t>-86,54; 488,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-67,83; 411,03</t>
+          <t>-75,32; 4,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,44; -16,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,09; -16,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-66,54; 226,71</t>
+          <t>-69,89; -21,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-93,31; 48,98</t>
+          <t>-74,46; -31,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-77,36; 131,19</t>
+          <t>-75,88; 206,62</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,46</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,7</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,81</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-2,05</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-1,64</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-1,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 0,06</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; -0,48</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; -0,37</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; -0,04</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; -0,37</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 2,62</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; -0,48</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; -0,94</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 0,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-48,55%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-63,38%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-56,48%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-47,24%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-53,49%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-48,08%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-48,08%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-58,14%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-52,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-76,25; 7,54</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-83,6; -11,08</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-79,77; -13,41</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-74,14; 0,65</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-75,62; -11,8</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-88,27; 105,18</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-66,77; -14,55</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-74,87; -31,51</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-76,16; 43,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
